--- a/dataanalysis/data/predictions/1400/09221407_1409.xlsx
+++ b/dataanalysis/data/predictions/1400/09221407_1409.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="137">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-22</t>
   </si>
   <si>
@@ -422,12 +425,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -785,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH53"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,19 +891,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300007</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0.33</v>
@@ -924,7 +924,7 @@
         <v>189969.23</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -966,10 +966,25 @@
         <v>-0.14</v>
       </c>
       <c r="X2" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y2">
+        <v>2.23</v>
+      </c>
+      <c r="Z2">
+        <v>66.98</v>
+      </c>
+      <c r="AA2">
+        <v>6.13</v>
       </c>
       <c r="AC2" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -977,22 +992,25 @@
       <c r="AG2">
         <v>-1.309572339057922</v>
       </c>
-      <c r="AH2" t="s">
-        <v>136</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300115</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>14.95</v>
@@ -1010,7 +1028,7 @@
         <v>699822.13</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1052,10 +1070,25 @@
         <v>0.71</v>
       </c>
       <c r="X3" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y3">
+        <v>-3.26</v>
+      </c>
+      <c r="Z3">
+        <v>39</v>
+      </c>
+      <c r="AA3">
+        <v>7.94</v>
       </c>
       <c r="AC3" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1063,22 +1096,25 @@
       <c r="AG3">
         <v>-4.983354568481445</v>
       </c>
-      <c r="AH3" t="s">
-        <v>136</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300331</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-3.79</v>
@@ -1096,7 +1132,7 @@
         <v>144897.43</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>12</v>
@@ -1138,10 +1174,25 @@
         <v>-1.49</v>
       </c>
       <c r="X4" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Y4">
+        <v>-3.71</v>
+      </c>
+      <c r="Z4">
+        <v>38.56</v>
+      </c>
+      <c r="AA4">
+        <v>-0.7</v>
       </c>
       <c r="AC4" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1149,22 +1200,25 @@
       <c r="AG4">
         <v>2.01799488067627</v>
       </c>
-      <c r="AH4" t="s">
-        <v>136</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300433</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>7.24</v>
@@ -1182,7 +1236,7 @@
         <v>523481.65</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1224,10 +1278,25 @@
         <v>0.23</v>
       </c>
       <c r="X5" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y5">
+        <v>-2.9</v>
+      </c>
+      <c r="Z5">
+        <v>33.26</v>
+      </c>
+      <c r="AA5">
+        <v>1.65</v>
       </c>
       <c r="AC5" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1235,22 +1304,25 @@
       <c r="AG5">
         <v>-32.84909057617188</v>
       </c>
-      <c r="AH5" t="s">
-        <v>136</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300450</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3.06</v>
@@ -1268,7 +1340,7 @@
         <v>695624.6</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6">
         <v>17</v>
@@ -1310,10 +1382,25 @@
         <v>0.02</v>
       </c>
       <c r="X6" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y6">
+        <v>7.49</v>
+      </c>
+      <c r="Z6">
+        <v>64.8</v>
+      </c>
+      <c r="AA6">
+        <v>13.09</v>
       </c>
       <c r="AC6" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1321,22 +1408,25 @@
       <c r="AG6">
         <v>1.249146342277527</v>
       </c>
-      <c r="AH6" t="s">
-        <v>136</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300469</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-2.02</v>
@@ -1354,7 +1444,7 @@
         <v>121088.91</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7">
         <v>23</v>
@@ -1396,10 +1486,25 @@
         <v>-0.37</v>
       </c>
       <c r="X7" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y7">
+        <v>-0.29</v>
+      </c>
+      <c r="Z7">
+        <v>89.7</v>
+      </c>
+      <c r="AA7">
+        <v>5.72</v>
       </c>
       <c r="AC7" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1407,22 +1512,25 @@
       <c r="AG7">
         <v>13.27867794036865</v>
       </c>
-      <c r="AH7" t="s">
-        <v>136</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300475</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>9.66</v>
@@ -1440,7 +1548,7 @@
         <v>439023.82</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>12</v>
@@ -1482,10 +1590,25 @@
         <v>0.45</v>
       </c>
       <c r="X8" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y8">
+        <v>-4.92</v>
+      </c>
+      <c r="Z8">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>3.49</v>
       </c>
       <c r="AC8" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1493,22 +1616,25 @@
       <c r="AG8">
         <v>-5.097320556640625</v>
       </c>
-      <c r="AH8" t="s">
-        <v>136</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300521</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.96</v>
@@ -1526,7 +1652,7 @@
         <v>44402.85</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1568,10 +1694,25 @@
         <v>0.45</v>
       </c>
       <c r="X9" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y9">
+        <v>-3.98</v>
+      </c>
+      <c r="Z9">
+        <v>33.81</v>
+      </c>
+      <c r="AA9">
+        <v>1.68</v>
       </c>
       <c r="AC9" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1579,22 +1720,25 @@
       <c r="AG9">
         <v>5.045649528503418</v>
       </c>
-      <c r="AH9" t="s">
-        <v>136</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300539</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -1612,7 +1756,7 @@
         <v>107363.2</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10">
         <v>12</v>
@@ -1654,10 +1798,25 @@
         <v>1.46</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y10">
+        <v>1.34</v>
+      </c>
+      <c r="Z10">
+        <v>52.89</v>
+      </c>
+      <c r="AA10">
+        <v>9.1</v>
       </c>
       <c r="AC10" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1665,22 +1824,25 @@
       <c r="AG10">
         <v>9.285906791687012</v>
       </c>
-      <c r="AH10" t="s">
-        <v>136</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300602</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3.12</v>
@@ -1698,7 +1860,7 @@
         <v>164416.37</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1740,10 +1902,25 @@
         <v>0.86</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y11">
+        <v>-2.95</v>
+      </c>
+      <c r="Z11">
+        <v>35.88</v>
+      </c>
+      <c r="AA11">
+        <v>2.49</v>
       </c>
       <c r="AC11" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1751,22 +1928,25 @@
       <c r="AG11">
         <v>1.428260207176208</v>
       </c>
-      <c r="AH11" t="s">
-        <v>136</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300604</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>3.23</v>
@@ -1784,7 +1964,7 @@
         <v>217797.58</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K12">
         <v>19</v>
@@ -1826,10 +2006,25 @@
         <v>0.3</v>
       </c>
       <c r="X12" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y12">
+        <v>20</v>
+      </c>
+      <c r="Z12">
+        <v>80.27</v>
+      </c>
+      <c r="AA12">
+        <v>21.51</v>
       </c>
       <c r="AC12" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1837,22 +2032,25 @@
       <c r="AG12">
         <v>11.55652713775635</v>
       </c>
-      <c r="AH12" t="s">
-        <v>136</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300620</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>8.800000000000001</v>
@@ -1870,7 +2068,7 @@
         <v>455211.11</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -1912,10 +2110,25 @@
         <v>0.28</v>
       </c>
       <c r="X13" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y13">
+        <v>-1.85</v>
+      </c>
+      <c r="Z13">
+        <v>140.6</v>
+      </c>
+      <c r="AA13">
+        <v>3.1</v>
       </c>
       <c r="AC13" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1923,22 +2136,25 @@
       <c r="AG13">
         <v>1.702014923095703</v>
       </c>
-      <c r="AH13" t="s">
-        <v>136</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300684</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>2.16</v>
@@ -1956,7 +2172,7 @@
         <v>119927.62</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -1998,10 +2214,25 @@
         <v>1.27</v>
       </c>
       <c r="X14" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y14">
+        <v>-4.84</v>
+      </c>
+      <c r="Z14">
+        <v>45.5</v>
+      </c>
+      <c r="AA14">
+        <v>2.5</v>
       </c>
       <c r="AC14" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2009,22 +2240,25 @@
       <c r="AG14">
         <v>2.697266817092896</v>
       </c>
-      <c r="AH14" t="s">
-        <v>136</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300806</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>5.65</v>
@@ -2042,7 +2276,7 @@
         <v>71681.24000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15">
         <v>7</v>
@@ -2084,10 +2318,25 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y15">
+        <v>-3.07</v>
+      </c>
+      <c r="Z15">
+        <v>27.87</v>
+      </c>
+      <c r="AA15">
+        <v>1.42</v>
       </c>
       <c r="AC15" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2095,22 +2344,25 @@
       <c r="AG15">
         <v>7.17405891418457</v>
       </c>
-      <c r="AH15" t="s">
-        <v>136</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300814</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-2</v>
@@ -2128,7 +2380,7 @@
         <v>56893.93</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2170,10 +2422,25 @@
         <v>0.09</v>
       </c>
       <c r="X16" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="Y16">
+        <v>-0.67</v>
+      </c>
+      <c r="Z16">
+        <v>58.5</v>
+      </c>
+      <c r="AA16">
+        <v>14.8</v>
       </c>
       <c r="AC16" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2181,22 +2448,25 @@
       <c r="AG16">
         <v>2.931902408599854</v>
       </c>
-      <c r="AH16" t="s">
-        <v>136</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300843</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>4.55</v>
@@ -2214,7 +2484,7 @@
         <v>76934.13</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2256,10 +2526,25 @@
         <v>0.17</v>
       </c>
       <c r="X17" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y17">
+        <v>-6.78</v>
+      </c>
+      <c r="Z17">
+        <v>61.98</v>
+      </c>
+      <c r="AA17">
+        <v>2.53</v>
       </c>
       <c r="AC17" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2267,22 +2552,25 @@
       <c r="AG17">
         <v>5.458369255065918</v>
       </c>
-      <c r="AH17" t="s">
-        <v>136</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300857</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>6.27</v>
@@ -2300,7 +2588,7 @@
         <v>350555.06</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18">
         <v>22</v>
@@ -2342,10 +2630,25 @@
         <v>0.22</v>
       </c>
       <c r="X18" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y18">
+        <v>-3.46</v>
+      </c>
+      <c r="Z18">
+        <v>179.59</v>
+      </c>
+      <c r="AA18">
+        <v>3.41</v>
       </c>
       <c r="AC18" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2353,22 +2656,25 @@
       <c r="AG18">
         <v>-3.534828662872314</v>
       </c>
-      <c r="AH18" t="s">
-        <v>136</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300859</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-3.7</v>
@@ -2386,7 +2692,7 @@
         <v>98446.52</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2428,10 +2734,25 @@
         <v>-0.72</v>
       </c>
       <c r="X19" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y19">
+        <v>-7.81</v>
+      </c>
+      <c r="Z19">
+        <v>54.5</v>
+      </c>
+      <c r="AA19">
+        <v>-0.6899999999999999</v>
       </c>
       <c r="AC19" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2439,22 +2760,25 @@
       <c r="AG19">
         <v>2.830240964889526</v>
       </c>
-      <c r="AH19" t="s">
-        <v>136</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300959</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>10.7</v>
@@ -2472,7 +2796,7 @@
         <v>115089.29</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2514,10 +2838,25 @@
         <v>0.49</v>
       </c>
       <c r="X20" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y20">
+        <v>-0.75</v>
+      </c>
+      <c r="Z20">
+        <v>82.19</v>
+      </c>
+      <c r="AA20">
+        <v>3.02</v>
       </c>
       <c r="AC20" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2525,22 +2864,25 @@
       <c r="AG20">
         <v>3.48056173324585</v>
       </c>
-      <c r="AH20" t="s">
-        <v>136</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300969</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>5.04</v>
@@ -2558,7 +2900,7 @@
         <v>42691.9</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2600,10 +2942,25 @@
         <v>0.76</v>
       </c>
       <c r="X21" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y21">
+        <v>15.26</v>
+      </c>
+      <c r="Z21">
+        <v>143.7</v>
+      </c>
+      <c r="AA21">
+        <v>18.96</v>
       </c>
       <c r="AC21" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2611,22 +2968,25 @@
       <c r="AG21">
         <v>1.998725056648254</v>
       </c>
-      <c r="AH21" t="s">
-        <v>136</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300984</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>2.59</v>
@@ -2644,7 +3004,7 @@
         <v>34282.29</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2686,10 +3046,25 @@
         <v>0.02</v>
       </c>
       <c r="X22" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y22">
+        <v>-1.48</v>
+      </c>
+      <c r="Z22">
+        <v>78.72</v>
+      </c>
+      <c r="AA22">
+        <v>2.41</v>
       </c>
       <c r="AC22" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2697,22 +3072,25 @@
       <c r="AG22">
         <v>3.83484148979187</v>
       </c>
-      <c r="AH22" t="s">
-        <v>136</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>301008</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>4.19</v>
@@ -2730,7 +3108,7 @@
         <v>79648.64999999999</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2772,10 +3150,25 @@
         <v>0.79</v>
       </c>
       <c r="X23" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y23">
+        <v>8.16</v>
+      </c>
+      <c r="Z23">
+        <v>55.05</v>
+      </c>
+      <c r="AA23">
+        <v>22.88</v>
       </c>
       <c r="AC23" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2783,22 +3176,25 @@
       <c r="AG23">
         <v>-0.007591227535158396</v>
       </c>
-      <c r="AH23" t="s">
-        <v>136</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>301013</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>11.46</v>
@@ -2816,7 +3212,7 @@
         <v>218574.98</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2858,10 +3254,25 @@
         <v>-1.41</v>
       </c>
       <c r="X24" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y24">
+        <v>-2.89</v>
+      </c>
+      <c r="Z24">
+        <v>30.88</v>
+      </c>
+      <c r="AA24">
+        <v>4.11</v>
       </c>
       <c r="AC24" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2869,22 +3280,25 @@
       <c r="AG24">
         <v>9.008204460144043</v>
       </c>
-      <c r="AH24" t="s">
-        <v>136</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>301018</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>4.93</v>
@@ -2902,7 +3316,7 @@
         <v>92767.64</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -2944,10 +3358,25 @@
         <v>0.25</v>
       </c>
       <c r="X25" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y25">
+        <v>-5.3</v>
+      </c>
+      <c r="Z25">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="AA25">
+        <v>5.09</v>
       </c>
       <c r="AC25" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2955,22 +3384,25 @@
       <c r="AG25">
         <v>2.638052940368652</v>
       </c>
-      <c r="AH25" t="s">
-        <v>136</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301150</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>1.79</v>
@@ -2988,7 +3420,7 @@
         <v>95993.00999999999</v>
       </c>
       <c r="J26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K26">
         <v>15</v>
@@ -3030,10 +3462,25 @@
         <v>-0.59</v>
       </c>
       <c r="X26" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="Y26">
+        <v>-4.05</v>
+      </c>
+      <c r="Z26">
+        <v>44</v>
+      </c>
+      <c r="AA26">
+        <v>2.92</v>
       </c>
       <c r="AC26" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3041,22 +3488,25 @@
       <c r="AG26">
         <v>2.837063074111938</v>
       </c>
-      <c r="AH26" t="s">
-        <v>136</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301183</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-2.39</v>
@@ -3074,7 +3524,7 @@
         <v>78725.31</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -3116,10 +3566,25 @@
         <v>-0.29</v>
       </c>
       <c r="X27" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y27">
+        <v>-7.03</v>
+      </c>
+      <c r="Z27">
+        <v>113.5</v>
+      </c>
+      <c r="AA27">
+        <v>5.62</v>
       </c>
       <c r="AC27" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3127,22 +3592,25 @@
       <c r="AG27">
         <v>2.463389158248901</v>
       </c>
-      <c r="AH27" t="s">
-        <v>136</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301307</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-0.3</v>
@@ -3160,7 +3628,7 @@
         <v>52858.91</v>
       </c>
       <c r="J28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -3202,10 +3670,25 @@
         <v>-0.65</v>
       </c>
       <c r="X28" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y28">
+        <v>0.28</v>
+      </c>
+      <c r="Z28">
+        <v>41.86</v>
+      </c>
+      <c r="AA28">
+        <v>4.86</v>
       </c>
       <c r="AC28" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3213,22 +3696,25 @@
       <c r="AG28">
         <v>1.957512259483337</v>
       </c>
-      <c r="AH28" t="s">
-        <v>136</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301308</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>9.24</v>
@@ -3246,7 +3732,7 @@
         <v>348389.4</v>
       </c>
       <c r="J29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3288,10 +3774,25 @@
         <v>0.49</v>
       </c>
       <c r="X29" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y29">
+        <v>2.56</v>
+      </c>
+      <c r="Z29">
+        <v>144.67</v>
+      </c>
+      <c r="AA29">
+        <v>3.51</v>
       </c>
       <c r="AC29" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3299,22 +3800,25 @@
       <c r="AG29">
         <v>-11.70239448547363</v>
       </c>
-      <c r="AH29" t="s">
-        <v>136</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301413</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.81</v>
@@ -3332,7 +3836,7 @@
         <v>80450.91</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30">
         <v>22</v>
@@ -3374,10 +3878,25 @@
         <v>0.06</v>
       </c>
       <c r="X30" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y30">
+        <v>-2.85</v>
+      </c>
+      <c r="Z30">
+        <v>177.5</v>
+      </c>
+      <c r="AA30">
+        <v>1.95</v>
       </c>
       <c r="AC30" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3385,22 +3904,25 @@
       <c r="AG30">
         <v>1.125556111335754</v>
       </c>
-      <c r="AH30" t="s">
-        <v>136</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301488</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-0.59</v>
@@ -3418,7 +3940,7 @@
         <v>91101.63</v>
       </c>
       <c r="J31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K31">
         <v>19</v>
@@ -3460,10 +3982,25 @@
         <v>-0.14</v>
       </c>
       <c r="X31" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y31">
+        <v>4.38</v>
+      </c>
+      <c r="Z31">
+        <v>194.52</v>
+      </c>
+      <c r="AA31">
+        <v>6.3</v>
       </c>
       <c r="AC31" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3471,22 +4008,25 @@
       <c r="AG31">
         <v>1.108665585517883</v>
       </c>
-      <c r="AH31" t="s">
-        <v>136</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301489</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>7.89</v>
@@ -3504,7 +4044,7 @@
         <v>93220.22</v>
       </c>
       <c r="J32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32">
         <v>10</v>
@@ -3546,10 +4086,25 @@
         <v>-0.06</v>
       </c>
       <c r="X32" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y32">
+        <v>0.15</v>
+      </c>
+      <c r="Z32">
+        <v>291.88</v>
+      </c>
+      <c r="AA32">
+        <v>12.82</v>
       </c>
       <c r="AC32" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3557,22 +4112,25 @@
       <c r="AG32">
         <v>-17.7783374786377</v>
       </c>
-      <c r="AH32" t="s">
-        <v>136</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301550</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>7.2</v>
@@ -3590,7 +4148,7 @@
         <v>88316.14</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -3632,10 +4190,25 @@
         <v>-0.11</v>
       </c>
       <c r="X33" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y33">
+        <v>1.49</v>
+      </c>
+      <c r="Z33">
+        <v>135.5</v>
+      </c>
+      <c r="AA33">
+        <v>4.55</v>
       </c>
       <c r="AC33" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3643,22 +4216,25 @@
       <c r="AG33">
         <v>-3.957278490066528</v>
       </c>
-      <c r="AH33" t="s">
-        <v>136</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688028</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>10.45</v>
@@ -3676,7 +4252,7 @@
         <v>70128.87</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K34">
         <v>11</v>
@@ -3718,10 +4294,25 @@
         <v>-0.77</v>
       </c>
       <c r="X34" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y34">
+        <v>-3.37</v>
+      </c>
+      <c r="Z34">
+        <v>51.83</v>
+      </c>
+      <c r="AA34">
+        <v>4.75</v>
       </c>
       <c r="AC34" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3729,22 +4320,25 @@
       <c r="AG34">
         <v>-2.895903348922729</v>
       </c>
-      <c r="AH34" t="s">
-        <v>136</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688041</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>10.61</v>
@@ -3762,7 +4356,7 @@
         <v>1619573.45</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3804,10 +4398,25 @@
         <v>0.19</v>
       </c>
       <c r="X35" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y35">
+        <v>-2.51</v>
+      </c>
+      <c r="Z35">
+        <v>264.88</v>
+      </c>
+      <c r="AA35">
+        <v>1.49</v>
       </c>
       <c r="AC35" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3815,22 +4424,25 @@
       <c r="AG35">
         <v>-14.02177619934082</v>
       </c>
-      <c r="AH35" t="s">
-        <v>136</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688062</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>5.61</v>
@@ -3848,7 +4460,7 @@
         <v>109117.11</v>
       </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3890,10 +4502,25 @@
         <v>0.31</v>
       </c>
       <c r="X36" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y36">
+        <v>-7.62</v>
+      </c>
+      <c r="Z36">
+        <v>54.35</v>
+      </c>
+      <c r="AA36">
+        <v>-0.13</v>
       </c>
       <c r="AC36" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3901,22 +4528,25 @@
       <c r="AG36">
         <v>7.516319751739502</v>
       </c>
-      <c r="AH36" t="s">
-        <v>136</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688110</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>7.08</v>
@@ -3934,7 +4564,7 @@
         <v>364849.31</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3976,10 +4606,25 @@
         <v>0.32</v>
       </c>
       <c r="X37" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y37">
+        <v>-5.64</v>
+      </c>
+      <c r="Z37">
+        <v>123.38</v>
+      </c>
+      <c r="AA37">
+        <v>3.16</v>
       </c>
       <c r="AC37" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3987,22 +4632,25 @@
       <c r="AG37">
         <v>-5.176430702209473</v>
       </c>
-      <c r="AH37" t="s">
-        <v>136</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688123</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>15.25</v>
@@ -4020,7 +4668,7 @@
         <v>171212.97</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4061,8 +4709,23 @@
       <c r="W38">
         <v>-0.61</v>
       </c>
+      <c r="Y38">
+        <v>11.22</v>
+      </c>
+      <c r="Z38">
+        <v>127.65</v>
+      </c>
+      <c r="AA38">
+        <v>18.42</v>
+      </c>
       <c r="AC38" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4070,22 +4733,25 @@
       <c r="AG38">
         <v>3.919857263565063</v>
       </c>
-      <c r="AH38" t="s">
-        <v>136</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688135</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>4.75</v>
@@ -4103,7 +4769,7 @@
         <v>85711.42999999999</v>
       </c>
       <c r="J39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K39">
         <v>15</v>
@@ -4145,10 +4811,25 @@
         <v>0.52</v>
       </c>
       <c r="X39" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y39">
+        <v>8.07</v>
+      </c>
+      <c r="Z39">
+        <v>38.9</v>
+      </c>
+      <c r="AA39">
+        <v>10.86</v>
       </c>
       <c r="AC39" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4156,22 +4837,25 @@
       <c r="AG39">
         <v>3.556818723678589</v>
       </c>
-      <c r="AH39" t="s">
-        <v>136</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688167</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-3.63</v>
@@ -4189,7 +4873,7 @@
         <v>152808.17</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40">
         <v>12</v>
@@ -4231,10 +4915,25 @@
         <v>-1.03</v>
       </c>
       <c r="X40" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Y40">
+        <v>-0.83</v>
+      </c>
+      <c r="Z40">
+        <v>176.55</v>
+      </c>
+      <c r="AA40">
+        <v>4.16</v>
       </c>
       <c r="AC40" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4242,22 +4941,25 @@
       <c r="AG40">
         <v>1.684128880500793</v>
       </c>
-      <c r="AH40" t="s">
-        <v>136</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688195</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -4275,7 +4977,7 @@
         <v>174908.51</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41">
         <v>26</v>
@@ -4317,10 +5019,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X41" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y41">
+        <v>0.7</v>
+      </c>
+      <c r="Z41">
+        <v>145.46</v>
+      </c>
+      <c r="AA41">
+        <v>7.92</v>
       </c>
       <c r="AC41" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4328,22 +5045,25 @@
       <c r="AG41">
         <v>0.3415406048297882</v>
       </c>
-      <c r="AH41" t="s">
-        <v>136</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688205</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-5.19</v>
@@ -4361,7 +5081,7 @@
         <v>235943.09</v>
       </c>
       <c r="J42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -4403,10 +5123,25 @@
         <v>-0.93</v>
       </c>
       <c r="X42" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y42">
+        <v>-10.14</v>
+      </c>
+      <c r="Z42">
+        <v>151.35</v>
+      </c>
+      <c r="AA42">
+        <v>3.66</v>
       </c>
       <c r="AC42" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4414,22 +5149,25 @@
       <c r="AG42">
         <v>10.32439231872559</v>
       </c>
-      <c r="AH42" t="s">
-        <v>136</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688228</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>11.4</v>
@@ -4447,7 +5185,7 @@
         <v>112286.07</v>
       </c>
       <c r="J43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K43">
         <v>9</v>
@@ -4489,10 +5227,25 @@
         <v>0.08</v>
       </c>
       <c r="X43" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y43">
+        <v>-12.29</v>
+      </c>
+      <c r="Z43">
+        <v>207</v>
+      </c>
+      <c r="AA43">
+        <v>-0.53</v>
       </c>
       <c r="AC43" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4500,22 +5253,25 @@
       <c r="AG43">
         <v>7.342104911804199</v>
       </c>
-      <c r="AH43" t="s">
-        <v>136</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688306</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>3.77</v>
@@ -4533,7 +5289,7 @@
         <v>63458.96</v>
       </c>
       <c r="J44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4575,10 +5331,25 @@
         <v>0.06</v>
       </c>
       <c r="X44" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y44">
+        <v>-3.84</v>
+      </c>
+      <c r="Z44">
+        <v>14.33</v>
+      </c>
+      <c r="AA44">
+        <v>2.14</v>
       </c>
       <c r="AC44" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4586,22 +5357,25 @@
       <c r="AG44">
         <v>-6.729331493377686</v>
       </c>
-      <c r="AH44" t="s">
-        <v>136</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688347</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0.84</v>
@@ -4619,7 +5393,7 @@
         <v>225091.07</v>
       </c>
       <c r="J45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K45">
         <v>8</v>
@@ -4661,10 +5435,25 @@
         <v>-0.44</v>
       </c>
       <c r="X45" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y45">
+        <v>-3.26</v>
+      </c>
+      <c r="Z45">
+        <v>84.5</v>
+      </c>
+      <c r="AA45">
+        <v>0.96</v>
       </c>
       <c r="AC45" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4672,22 +5461,25 @@
       <c r="AG45">
         <v>7.862536907196045</v>
       </c>
-      <c r="AH45" t="s">
-        <v>136</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688400</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>3.49</v>
@@ -4705,7 +5497,7 @@
         <v>170309.76</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K46">
         <v>8</v>
@@ -4746,8 +5538,23 @@
       <c r="W46">
         <v>0.1</v>
       </c>
+      <c r="Y46">
+        <v>-2.54</v>
+      </c>
+      <c r="Z46">
+        <v>54.47</v>
+      </c>
+      <c r="AA46">
+        <v>3.75</v>
+      </c>
       <c r="AC46" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4755,22 +5562,25 @@
       <c r="AG46">
         <v>2.42424488067627</v>
       </c>
-      <c r="AH46" t="s">
-        <v>137</v>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688411</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-0.25</v>
@@ -4788,7 +5598,7 @@
         <v>36731.61</v>
       </c>
       <c r="J47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K47">
         <v>15</v>
@@ -4830,10 +5640,25 @@
         <v>-0.42</v>
       </c>
       <c r="X47" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y47">
+        <v>18.59</v>
+      </c>
+      <c r="Z47">
+        <v>259.5</v>
+      </c>
+      <c r="AA47">
+        <v>28.78</v>
       </c>
       <c r="AC47" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4841,22 +5666,25 @@
       <c r="AG47">
         <v>2.494095325469971</v>
       </c>
-      <c r="AH47" t="s">
-        <v>136</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688521</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>16.53</v>
@@ -4874,7 +5702,7 @@
         <v>760567.71</v>
       </c>
       <c r="J48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K48">
         <v>14</v>
@@ -4916,10 +5744,25 @@
         <v>0.57</v>
       </c>
       <c r="X48" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y48">
+        <v>1.48</v>
+      </c>
+      <c r="Z48">
+        <v>207.6</v>
+      </c>
+      <c r="AA48">
+        <v>2.98</v>
       </c>
       <c r="AC48" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4927,22 +5770,25 @@
       <c r="AG48">
         <v>-0.1785155981779099</v>
       </c>
-      <c r="AH48" t="s">
-        <v>136</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688627</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>2.48</v>
@@ -4960,7 +5806,7 @@
         <v>58168.04</v>
       </c>
       <c r="J49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K49">
         <v>7</v>
@@ -5002,10 +5848,25 @@
         <v>0.26</v>
       </c>
       <c r="X49" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y49">
+        <v>16.97</v>
+      </c>
+      <c r="Z49">
+        <v>183.6</v>
+      </c>
+      <c r="AA49">
+        <v>21.86</v>
       </c>
       <c r="AC49" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5013,22 +5874,25 @@
       <c r="AG49">
         <v>3.189315319061279</v>
       </c>
-      <c r="AH49" t="s">
-        <v>136</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688629</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>3.51</v>
@@ -5046,7 +5910,7 @@
         <v>250531.48</v>
       </c>
       <c r="J50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K50">
         <v>8</v>
@@ -5088,10 +5952,25 @@
         <v>0.15</v>
       </c>
       <c r="X50" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y50">
+        <v>-3.62</v>
+      </c>
+      <c r="Z50">
+        <v>108.98</v>
+      </c>
+      <c r="AA50">
+        <v>0.32</v>
       </c>
       <c r="AC50" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5099,22 +5978,25 @@
       <c r="AG50">
         <v>5.356997966766357</v>
       </c>
-      <c r="AH50" t="s">
-        <v>136</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688678</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>10.83</v>
@@ -5132,7 +6014,7 @@
         <v>77719</v>
       </c>
       <c r="J51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5174,10 +6056,25 @@
         <v>0.4</v>
       </c>
       <c r="X51" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y51">
+        <v>1.78</v>
+      </c>
+      <c r="Z51">
+        <v>37.39</v>
+      </c>
+      <c r="AA51">
+        <v>3.77</v>
       </c>
       <c r="AC51" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5185,22 +6082,25 @@
       <c r="AG51">
         <v>0.3771755397319794</v>
       </c>
-      <c r="AH51" t="s">
-        <v>136</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688766</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>2.83</v>
@@ -5218,7 +6118,7 @@
         <v>157964.2</v>
       </c>
       <c r="J52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -5260,10 +6160,25 @@
         <v>1.05</v>
       </c>
       <c r="X52" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y52">
+        <v>-2.05</v>
+      </c>
+      <c r="Z52">
+        <v>110.3</v>
+      </c>
+      <c r="AA52">
+        <v>1.67</v>
       </c>
       <c r="AC52" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5271,22 +6186,25 @@
       <c r="AG52">
         <v>3.859566688537598</v>
       </c>
-      <c r="AH52" t="s">
-        <v>136</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688981</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>4.01</v>
@@ -5304,7 +6222,7 @@
         <v>1703643.96</v>
       </c>
       <c r="J53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K53">
         <v>8</v>
@@ -5346,10 +6264,25 @@
         <v>0.08</v>
       </c>
       <c r="X53" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y53">
+        <v>-0.32</v>
+      </c>
+      <c r="Z53">
+        <v>129.33</v>
+      </c>
+      <c r="AA53">
+        <v>2.48</v>
       </c>
       <c r="AC53" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5357,8 +6290,11 @@
       <c r="AG53">
         <v>5.153841018676758</v>
       </c>
-      <c r="AH53" t="s">
-        <v>136</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
